--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Il12rb1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.75910625638033</v>
+        <v>40.93808033333333</v>
       </c>
       <c r="H2">
-        <v>5.75910625638033</v>
+        <v>122.814241</v>
       </c>
       <c r="I2">
-        <v>0.8779153375156715</v>
+        <v>0.9124277875416948</v>
       </c>
       <c r="J2">
-        <v>0.8779153375156715</v>
+        <v>0.9124277875416951</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.607575986126102</v>
+        <v>0.9343656666666665</v>
       </c>
       <c r="N2">
-        <v>0.607575986126102</v>
+        <v>2.803097</v>
       </c>
       <c r="O2">
-        <v>0.197602003118504</v>
+        <v>0.2583345490826491</v>
       </c>
       <c r="P2">
-        <v>0.197602003118504</v>
+        <v>0.2583345490826492</v>
       </c>
       <c r="Q2">
-        <v>3.499094662925283</v>
+        <v>38.25113672270855</v>
       </c>
       <c r="R2">
-        <v>3.499094662925283</v>
+        <v>344.260230504377</v>
       </c>
       <c r="S2">
-        <v>0.1734778292615542</v>
+        <v>0.2357116210650629</v>
       </c>
       <c r="T2">
-        <v>0.1734778292615542</v>
+        <v>0.235711621065063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.75910625638033</v>
+        <v>40.93808033333333</v>
       </c>
       <c r="H3">
-        <v>5.75910625638033</v>
+        <v>122.814241</v>
       </c>
       <c r="I3">
-        <v>0.8779153375156715</v>
+        <v>0.9124277875416948</v>
       </c>
       <c r="J3">
-        <v>0.8779153375156715</v>
+        <v>0.9124277875416951</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.10752724498684</v>
+        <v>1.230405</v>
       </c>
       <c r="N3">
-        <v>1.10752724498684</v>
+        <v>3.691215</v>
       </c>
       <c r="O3">
-        <v>0.3602012046478341</v>
+        <v>0.3401838618471322</v>
       </c>
       <c r="P3">
-        <v>0.3602012046478341</v>
+        <v>0.3401838618471323</v>
       </c>
       <c r="Q3">
-        <v>6.378367085715381</v>
+        <v>50.37041873253499</v>
       </c>
       <c r="R3">
-        <v>6.378367085715381</v>
+        <v>453.3337685928149</v>
       </c>
       <c r="S3">
-        <v>0.3162261621519548</v>
+        <v>0.3103932084225685</v>
       </c>
       <c r="T3">
-        <v>0.3162261621519548</v>
+        <v>0.3103932084225686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.75910625638033</v>
+        <v>40.93808033333333</v>
       </c>
       <c r="H4">
-        <v>5.75910625638033</v>
+        <v>122.814241</v>
       </c>
       <c r="I4">
-        <v>0.8779153375156715</v>
+        <v>0.9124277875416948</v>
       </c>
       <c r="J4">
-        <v>0.8779153375156715</v>
+        <v>0.9124277875416951</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.997461339327197</v>
+        <v>1.089144</v>
       </c>
       <c r="N4">
-        <v>0.997461339327197</v>
+        <v>3.267432</v>
       </c>
       <c r="O4">
-        <v>0.32440445834772</v>
+        <v>0.3011278497955007</v>
       </c>
       <c r="P4">
-        <v>0.32440445834772</v>
+        <v>0.3011278497955007</v>
       </c>
       <c r="Q4">
-        <v>5.744485839816764</v>
+        <v>44.58746456656799</v>
       </c>
       <c r="R4">
-        <v>5.744485839816764</v>
+        <v>401.287181099112</v>
       </c>
       <c r="S4">
-        <v>0.2847996495419272</v>
+        <v>0.2747574177560965</v>
       </c>
       <c r="T4">
-        <v>0.2847996495419272</v>
+        <v>0.2747574177560966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.75910625638033</v>
+        <v>40.93808033333333</v>
       </c>
       <c r="H5">
-        <v>5.75910625638033</v>
+        <v>122.814241</v>
       </c>
       <c r="I5">
-        <v>0.8779153375156715</v>
+        <v>0.9124277875416948</v>
       </c>
       <c r="J5">
-        <v>0.8779153375156715</v>
+        <v>0.9124277875416951</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.362181517845881</v>
+        <v>0.3629676666666666</v>
       </c>
       <c r="N5">
-        <v>0.362181517845881</v>
+        <v>1.088903</v>
       </c>
       <c r="O5">
-        <v>0.117792333885942</v>
+        <v>0.1003537392747179</v>
       </c>
       <c r="P5">
-        <v>0.117792333885942</v>
+        <v>0.1003537392747179</v>
       </c>
       <c r="Q5">
-        <v>2.085841845371537</v>
+        <v>14.85919949640255</v>
       </c>
       <c r="R5">
-        <v>2.085841845371537</v>
+        <v>133.732795467623</v>
       </c>
       <c r="S5">
-        <v>0.1034116965602354</v>
+        <v>0.09156554029796694</v>
       </c>
       <c r="T5">
-        <v>0.1034116965602354</v>
+        <v>0.09156554029796697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.800872833035596</v>
+        <v>1.266482333333333</v>
       </c>
       <c r="H6">
-        <v>0.800872833035596</v>
+        <v>3.799447</v>
       </c>
       <c r="I6">
-        <v>0.1220846624843285</v>
+        <v>0.02822735369990138</v>
       </c>
       <c r="J6">
-        <v>0.1220846624843285</v>
+        <v>0.02822735369990139</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.607575986126102</v>
+        <v>0.9343656666666665</v>
       </c>
       <c r="N6">
-        <v>0.607575986126102</v>
+        <v>2.803097</v>
       </c>
       <c r="O6">
-        <v>0.197602003118504</v>
+        <v>0.2583345490826491</v>
       </c>
       <c r="P6">
-        <v>0.197602003118504</v>
+        <v>0.2583345490826492</v>
       </c>
       <c r="Q6">
-        <v>0.4865911012932073</v>
+        <v>1.183357609706555</v>
       </c>
       <c r="R6">
-        <v>0.4865911012932073</v>
+        <v>10.650218487359</v>
       </c>
       <c r="S6">
-        <v>0.02412417385694978</v>
+        <v>0.007292100689860471</v>
       </c>
       <c r="T6">
-        <v>0.02412417385694978</v>
+        <v>0.007292100689860474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.800872833035596</v>
+        <v>1.266482333333333</v>
       </c>
       <c r="H7">
-        <v>0.800872833035596</v>
+        <v>3.799447</v>
       </c>
       <c r="I7">
-        <v>0.1220846624843285</v>
+        <v>0.02822735369990138</v>
       </c>
       <c r="J7">
-        <v>0.1220846624843285</v>
+        <v>0.02822735369990139</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10752724498684</v>
+        <v>1.230405</v>
       </c>
       <c r="N7">
-        <v>1.10752724498684</v>
+        <v>3.691215</v>
       </c>
       <c r="O7">
-        <v>0.3602012046478341</v>
+        <v>0.3401838618471322</v>
       </c>
       <c r="P7">
-        <v>0.3602012046478341</v>
+        <v>0.3401838618471323</v>
       </c>
       <c r="Q7">
-        <v>0.8869884823567191</v>
+        <v>1.558286195345</v>
       </c>
       <c r="R7">
-        <v>0.8869884823567191</v>
+        <v>14.024575758105</v>
       </c>
       <c r="S7">
-        <v>0.04397504249587937</v>
+        <v>0.009602490191357388</v>
       </c>
       <c r="T7">
-        <v>0.04397504249587937</v>
+        <v>0.009602490191357392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.800872833035596</v>
+        <v>1.266482333333333</v>
       </c>
       <c r="H8">
-        <v>0.800872833035596</v>
+        <v>3.799447</v>
       </c>
       <c r="I8">
-        <v>0.1220846624843285</v>
+        <v>0.02822735369990138</v>
       </c>
       <c r="J8">
-        <v>0.1220846624843285</v>
+        <v>0.02822735369990139</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.997461339327197</v>
+        <v>1.089144</v>
       </c>
       <c r="N8">
-        <v>0.997461339327197</v>
+        <v>3.267432</v>
       </c>
       <c r="O8">
-        <v>0.32440445834772</v>
+        <v>0.3011278497955007</v>
       </c>
       <c r="P8">
-        <v>0.32440445834772</v>
+        <v>0.3011278497955007</v>
       </c>
       <c r="Q8">
-        <v>0.7988396886704522</v>
+        <v>1.379381634456</v>
       </c>
       <c r="R8">
-        <v>0.7988396886704522</v>
+        <v>12.414434710104</v>
       </c>
       <c r="S8">
-        <v>0.0396048088057928</v>
+        <v>0.008500042325068373</v>
       </c>
       <c r="T8">
-        <v>0.0396048088057928</v>
+        <v>0.008500042325068376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.266482333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.799447</v>
+      </c>
+      <c r="I9">
+        <v>0.02822735369990138</v>
+      </c>
+      <c r="J9">
+        <v>0.02822735369990139</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3629676666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.088903</v>
+      </c>
+      <c r="O9">
+        <v>0.1003537392747179</v>
+      </c>
+      <c r="P9">
+        <v>0.1003537392747179</v>
+      </c>
+      <c r="Q9">
+        <v>0.4596921374045555</v>
+      </c>
+      <c r="R9">
+        <v>4.137229236641</v>
+      </c>
+      <c r="S9">
+        <v>0.002832720493615147</v>
+      </c>
+      <c r="T9">
+        <v>0.002832720493615148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.857492</v>
+      </c>
+      <c r="H10">
+        <v>5.572476</v>
+      </c>
+      <c r="I10">
+        <v>0.04139977502942182</v>
+      </c>
+      <c r="J10">
+        <v>0.04139977502942183</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9343656666666665</v>
+      </c>
+      <c r="N10">
+        <v>2.803097</v>
+      </c>
+      <c r="O10">
+        <v>0.2583345490826491</v>
+      </c>
+      <c r="P10">
+        <v>0.2583345490826492</v>
+      </c>
+      <c r="Q10">
+        <v>1.735576750908</v>
+      </c>
+      <c r="R10">
+        <v>15.620190758172</v>
+      </c>
+      <c r="S10">
+        <v>0.0106949922143488</v>
+      </c>
+      <c r="T10">
+        <v>0.01069499221434881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.857492</v>
+      </c>
+      <c r="H11">
+        <v>5.572476</v>
+      </c>
+      <c r="I11">
+        <v>0.04139977502942182</v>
+      </c>
+      <c r="J11">
+        <v>0.04139977502942183</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.230405</v>
+      </c>
+      <c r="N11">
+        <v>3.691215</v>
+      </c>
+      <c r="O11">
+        <v>0.3401838618471322</v>
+      </c>
+      <c r="P11">
+        <v>0.3401838618471323</v>
+      </c>
+      <c r="Q11">
+        <v>2.28546744426</v>
+      </c>
+      <c r="R11">
+        <v>20.56920699834</v>
+      </c>
+      <c r="S11">
+        <v>0.01408353534911119</v>
+      </c>
+      <c r="T11">
+        <v>0.01408353534911119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.857492</v>
+      </c>
+      <c r="H12">
+        <v>5.572476</v>
+      </c>
+      <c r="I12">
+        <v>0.04139977502942182</v>
+      </c>
+      <c r="J12">
+        <v>0.04139977502942183</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.089144</v>
+      </c>
+      <c r="N12">
+        <v>3.267432</v>
+      </c>
+      <c r="O12">
+        <v>0.3011278497955007</v>
+      </c>
+      <c r="P12">
+        <v>0.3011278497955007</v>
+      </c>
+      <c r="Q12">
+        <v>2.023076266848</v>
+      </c>
+      <c r="R12">
+        <v>18.207686401632</v>
+      </c>
+      <c r="S12">
+        <v>0.01246662523662725</v>
+      </c>
+      <c r="T12">
+        <v>0.01246662523662726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.857492</v>
+      </c>
+      <c r="H13">
+        <v>5.572476</v>
+      </c>
+      <c r="I13">
+        <v>0.04139977502942182</v>
+      </c>
+      <c r="J13">
+        <v>0.04139977502942183</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3629676666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.088903</v>
+      </c>
+      <c r="O13">
+        <v>0.1003537392747179</v>
+      </c>
+      <c r="P13">
+        <v>0.1003537392747179</v>
+      </c>
+      <c r="Q13">
+        <v>0.6742095370919999</v>
+      </c>
+      <c r="R13">
+        <v>6.067885833828</v>
+      </c>
+      <c r="S13">
+        <v>0.004154622229334574</v>
+      </c>
+      <c r="T13">
+        <v>0.004154622229334576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8051456666666668</v>
+      </c>
+      <c r="H14">
+        <v>2.415437</v>
+      </c>
+      <c r="I14">
+        <v>0.0179450837289818</v>
+      </c>
+      <c r="J14">
+        <v>0.0179450837289818</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9343656666666665</v>
+      </c>
+      <c r="N14">
+        <v>2.803097</v>
+      </c>
+      <c r="O14">
+        <v>0.2583345490826491</v>
+      </c>
+      <c r="P14">
+        <v>0.2583345490826492</v>
+      </c>
+      <c r="Q14">
+        <v>0.7523004675987778</v>
+      </c>
+      <c r="R14">
+        <v>6.770704208389001</v>
+      </c>
+      <c r="S14">
+        <v>0.004635835113376897</v>
+      </c>
+      <c r="T14">
+        <v>0.004635835113376899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.800872833035596</v>
-      </c>
-      <c r="H9">
-        <v>0.800872833035596</v>
-      </c>
-      <c r="I9">
-        <v>0.1220846624843285</v>
-      </c>
-      <c r="J9">
-        <v>0.1220846624843285</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.362181517845881</v>
-      </c>
-      <c r="N9">
-        <v>0.362181517845881</v>
-      </c>
-      <c r="O9">
-        <v>0.117792333885942</v>
-      </c>
-      <c r="P9">
-        <v>0.117792333885942</v>
-      </c>
-      <c r="Q9">
-        <v>0.290061338270363</v>
-      </c>
-      <c r="R9">
-        <v>0.290061338270363</v>
-      </c>
-      <c r="S9">
-        <v>0.01438063732570656</v>
-      </c>
-      <c r="T9">
-        <v>0.01438063732570656</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8051456666666668</v>
+      </c>
+      <c r="H15">
+        <v>2.415437</v>
+      </c>
+      <c r="I15">
+        <v>0.0179450837289818</v>
+      </c>
+      <c r="J15">
+        <v>0.0179450837289818</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.230405</v>
+      </c>
+      <c r="N15">
+        <v>3.691215</v>
+      </c>
+      <c r="O15">
+        <v>0.3401838618471322</v>
+      </c>
+      <c r="P15">
+        <v>0.3401838618471323</v>
+      </c>
+      <c r="Q15">
+        <v>0.9906552539950001</v>
+      </c>
+      <c r="R15">
+        <v>8.915897285954999</v>
+      </c>
+      <c r="S15">
+        <v>0.006104627884095165</v>
+      </c>
+      <c r="T15">
+        <v>0.006104627884095167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8051456666666668</v>
+      </c>
+      <c r="H16">
+        <v>2.415437</v>
+      </c>
+      <c r="I16">
+        <v>0.0179450837289818</v>
+      </c>
+      <c r="J16">
+        <v>0.0179450837289818</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.089144</v>
+      </c>
+      <c r="N16">
+        <v>3.267432</v>
+      </c>
+      <c r="O16">
+        <v>0.3011278497955007</v>
+      </c>
+      <c r="P16">
+        <v>0.3011278497955007</v>
+      </c>
+      <c r="Q16">
+        <v>0.876919571976</v>
+      </c>
+      <c r="R16">
+        <v>7.892276147784001</v>
+      </c>
+      <c r="S16">
+        <v>0.005403764477708514</v>
+      </c>
+      <c r="T16">
+        <v>0.005403764477708516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8051456666666668</v>
+      </c>
+      <c r="H17">
+        <v>2.415437</v>
+      </c>
+      <c r="I17">
+        <v>0.0179450837289818</v>
+      </c>
+      <c r="J17">
+        <v>0.0179450837289818</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3629676666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.088903</v>
+      </c>
+      <c r="O17">
+        <v>0.1003537392747179</v>
+      </c>
+      <c r="P17">
+        <v>0.1003537392747179</v>
+      </c>
+      <c r="Q17">
+        <v>0.2922418439567778</v>
+      </c>
+      <c r="R17">
+        <v>2.630176595611</v>
+      </c>
+      <c r="S17">
+        <v>0.001800856253801222</v>
+      </c>
+      <c r="T17">
+        <v>0.001800856253801222</v>
       </c>
     </row>
   </sheetData>
